--- a/Document/武器表格.xlsx
+++ b/Document/武器表格.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,10 @@
   </si>
   <si>
     <t>锯齿剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -400,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,13 +443,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -453,12 +457,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>18</v>
       </c>
     </row>
